--- a/stage_1/Basic_Error_Handling_Named Ranges/Basic_error_handling_named_ranges.xlsx
+++ b/stage_1/Basic_Error_Handling_Named Ranges/Basic_error_handling_named_ranges.xlsx
@@ -1,27 +1,136 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_1\Basic_Error_Handling_Named Ranges\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{308AAE15-6987-4A8A-A04E-7D237755A47C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Revenue</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>Shoes</t>
+  </si>
+  <si>
+    <t>Bags</t>
+  </si>
+  <si>
+    <t>Watches</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Belts</t>
+  </si>
+  <si>
+    <t>Glasses</t>
+  </si>
+  <si>
+    <t>Caps</t>
+  </si>
+  <si>
+    <t>Jackets</t>
+  </si>
+  <si>
+    <t>Socks</t>
+  </si>
+  <si>
+    <t>Trousers</t>
+  </si>
+  <si>
+    <t>Ties</t>
+  </si>
+  <si>
+    <t>Scarves</t>
+  </si>
+  <si>
+    <t>Hats</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>Wallets</t>
+  </si>
+  <si>
+    <t>Rings</t>
+  </si>
+  <si>
+    <t>Earrings</t>
+  </si>
+  <si>
+    <t>Necklaces</t>
+  </si>
+  <si>
+    <t>Bracelets</t>
+  </si>
+  <si>
+    <t>Sandals</t>
+  </si>
+  <si>
+    <t>Sneakers</t>
+  </si>
+  <si>
+    <t>Slippers</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -49,8 +158,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +443,388 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>5000</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <f>B2*C2</f>
+        <v>50000</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>8000</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <f>B3*C3</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4" t="e">
+        <f>B4*C4</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>4000</v>
+      </c>
+      <c r="C5">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <f>B5*C5</f>
+        <v>32000</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>3000</v>
+      </c>
+      <c r="C6">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <f>B6*C6</f>
+        <v>18000</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>1500</v>
+      </c>
+      <c r="C7">
+        <v>12</v>
+      </c>
+      <c r="D7">
+        <f>B7*C7</f>
+        <v>18000</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>12000</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <f>B8*C8</f>
+        <v>36000</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>500</v>
+      </c>
+      <c r="C9">
+        <v>25</v>
+      </c>
+      <c r="D9">
+        <f>B9*C9</f>
+        <v>12500</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>7000</v>
+      </c>
+      <c r="D10">
+        <f>B10*C10</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>2000</v>
+      </c>
+      <c r="C11">
+        <v>15</v>
+      </c>
+      <c r="D11">
+        <f>B11*C11</f>
+        <v>30000</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12">
+        <v>1800</v>
+      </c>
+      <c r="C12">
+        <v>7</v>
+      </c>
+      <c r="D12">
+        <f>B12*C12</f>
+        <v>12600</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13">
+        <v>2500</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" t="e">
+        <f>B13*C13</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14">
+        <v>3500</v>
+      </c>
+      <c r="C14">
+        <v>9</v>
+      </c>
+      <c r="D14">
+        <f>B14*C14</f>
+        <v>31500</v>
+      </c>
+      <c r="E14" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15">
+        <v>4500</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <f>B15*C15</f>
+        <v>18000</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16">
+        <v>3800</v>
+      </c>
+      <c r="C16">
+        <v>6</v>
+      </c>
+      <c r="D16">
+        <f>B16*C16</f>
+        <v>22800</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17">
+        <v>10000</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <f>B17*C17</f>
+        <v>20000</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18">
+        <v>4200</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <f>B18*C18</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19">
+        <v>6000</v>
+      </c>
+      <c r="C19">
+        <v>11</v>
+      </c>
+      <c r="D19">
+        <f>B19*C19</f>
+        <v>66000</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20">
+        <v>7500</v>
+      </c>
+      <c r="C20">
+        <v>5</v>
+      </c>
+      <c r="D20">
+        <f>B20*C20</f>
+        <v>37500</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21">
+        <v>20</v>
+      </c>
+      <c r="D21">
+        <f>B21*C21</f>
+        <v>0</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0.03</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/stage_1/Basic_Error_Handling_Named Ranges/Basic_error_handling_named_ranges.xlsx
+++ b/stage_1/Basic_Error_Handling_Named Ranges/Basic_error_handling_named_ranges.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_1\Basic_Error_Handling_Named Ranges\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{308AAE15-6987-4A8A-A04E-7D237755A47C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F72CE4C-6729-4AAC-9603-D429A9B9DA5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Product</t>
   </si>
@@ -115,6 +115,12 @@
   </si>
   <si>
     <t>Slippers</t>
+  </si>
+  <si>
+    <t>Unit Cost</t>
+  </si>
+  <si>
+    <t>Category Lookup</t>
   </si>
 </sst>
 </file>
@@ -444,15 +450,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.1796875" customWidth="1"/>
+    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -468,8 +479,14 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -486,8 +503,16 @@
       <c r="E2" s="1">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F2">
+        <f>D2/C2</f>
+        <v>5000</v>
+      </c>
+      <c r="G2" t="e">
+        <f>VLOOKUP(A2,$H$2:$I$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -504,8 +529,16 @@
       <c r="E3" s="1">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F3" t="e">
+        <f>D3/C3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G3" t="e">
+        <f>VLOOKUP(A3,$H$2:$I$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -522,8 +555,16 @@
       <c r="E4" s="1">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F4" t="e">
+        <f>D4/C4</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G4" t="e">
+        <f>VLOOKUP(A4,$H$2:$I$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -540,8 +581,16 @@
       <c r="E5" s="1">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F5">
+        <f>D5/C5</f>
+        <v>4000</v>
+      </c>
+      <c r="G5" t="e">
+        <f>VLOOKUP(A5,$H$2:$I$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -558,8 +607,16 @@
       <c r="E6" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F6">
+        <f>D6/C6</f>
+        <v>3000</v>
+      </c>
+      <c r="G6" t="e">
+        <f>VLOOKUP(A6,$H$2:$I$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -576,8 +633,16 @@
       <c r="E7" s="1">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F7">
+        <f>D7/C7</f>
+        <v>1500</v>
+      </c>
+      <c r="G7" t="e">
+        <f>VLOOKUP(A7,$H$2:$I$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -594,8 +659,16 @@
       <c r="E8" s="1">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F8">
+        <f>D8/C8</f>
+        <v>12000</v>
+      </c>
+      <c r="G8" t="e">
+        <f>VLOOKUP(A8,$H$2:$I$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -612,8 +685,16 @@
       <c r="E9" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F9">
+        <f>D9/C9</f>
+        <v>500</v>
+      </c>
+      <c r="G9" t="e">
+        <f>VLOOKUP(A9,$H$2:$I$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -627,8 +708,16 @@
       <c r="E10" s="1">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F10" t="e">
+        <f>D10/C10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G10" t="e">
+        <f>VLOOKUP(A10,$H$2:$I$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -645,8 +734,16 @@
       <c r="E11" s="1">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F11">
+        <f>D11/C11</f>
+        <v>2000</v>
+      </c>
+      <c r="G11" t="e">
+        <f>VLOOKUP(A11,$H$2:$I$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -663,8 +760,16 @@
       <c r="E12" s="1">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F12">
+        <f>D12/C12</f>
+        <v>1800</v>
+      </c>
+      <c r="G12" t="e">
+        <f>VLOOKUP(A12,$H$2:$I$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -681,8 +786,16 @@
       <c r="E13" s="1">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F13" t="e">
+        <f>D13/C13</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G13" t="e">
+        <f>VLOOKUP(A13,$H$2:$I$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -699,8 +812,16 @@
       <c r="E14" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F14">
+        <f>D14/C14</f>
+        <v>3500</v>
+      </c>
+      <c r="G14" t="e">
+        <f>VLOOKUP(A14,$H$2:$I$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -717,8 +838,16 @@
       <c r="E15" s="1">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F15">
+        <f>D15/C15</f>
+        <v>4500</v>
+      </c>
+      <c r="G15" t="e">
+        <f>VLOOKUP(A15,$H$2:$I$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -735,8 +864,16 @@
       <c r="E16" s="1">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F16">
+        <f>D16/C16</f>
+        <v>3800</v>
+      </c>
+      <c r="G16" t="e">
+        <f>VLOOKUP(A16,$H$2:$I$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -753,8 +890,16 @@
       <c r="E17" s="1">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F17">
+        <f>D17/C17</f>
+        <v>10000</v>
+      </c>
+      <c r="G17" t="e">
+        <f>VLOOKUP(A17,$H$2:$I$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -771,8 +916,16 @@
       <c r="E18" s="1">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F18" t="e">
+        <f>D18/C18</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G18" t="e">
+        <f>VLOOKUP(A18,$H$2:$I$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -789,8 +942,16 @@
       <c r="E19" s="1">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F19">
+        <f>D19/C19</f>
+        <v>6000</v>
+      </c>
+      <c r="G19" t="e">
+        <f>VLOOKUP(A19,$H$2:$I$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -807,8 +968,16 @@
       <c r="E20" s="1">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F20">
+        <f>D20/C20</f>
+        <v>7500</v>
+      </c>
+      <c r="G20" t="e">
+        <f>VLOOKUP(A20,$H$2:$I$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -821,6 +990,14 @@
       </c>
       <c r="E21" s="1">
         <v>0.03</v>
+      </c>
+      <c r="F21">
+        <f>D21/C21</f>
+        <v>0</v>
+      </c>
+      <c r="G21" t="e">
+        <f>VLOOKUP(A21,$H$2:$I$6,2,FALSE)</f>
+        <v>#N/A</v>
       </c>
     </row>
   </sheetData>

--- a/stage_1/Basic_Error_Handling_Named Ranges/Basic_error_handling_named_ranges.xlsx
+++ b/stage_1/Basic_Error_Handling_Named Ranges/Basic_error_handling_named_ranges.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_1\Basic_Error_Handling_Named Ranges\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F72CE4C-6729-4AAC-9603-D429A9B9DA5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3724851D-FE93-4206-9949-9554D6ED896B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Fix" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="29">
   <si>
     <t>Product</t>
   </si>
@@ -452,8 +453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1004,4 +1005,559 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD18B855-4A1A-4688-8943-6A25BAFF4725}">
+  <dimension ref="A1:G21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>5000</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <f>B2*C2</f>
+        <v>50000</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="F2">
+        <f>IF(C2 = 0, "", D2/C2)</f>
+        <v>5000</v>
+      </c>
+      <c r="G2" t="e">
+        <f>VLOOKUP(A2,$H$2:$I$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>8000</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <f>B3*C3</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" ref="F3:F21" si="0">IF(C3 = 0, "", D3/C3)</f>
+        <v/>
+      </c>
+      <c r="G3" t="e">
+        <f>VLOOKUP(A3,$H$2:$I$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4" t="e">
+        <f>B4*C4</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="F4" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G4" t="e">
+        <f>VLOOKUP(A4,$H$2:$I$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>4000</v>
+      </c>
+      <c r="C5">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <f>B5*C5</f>
+        <v>32000</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>4000</v>
+      </c>
+      <c r="G5" t="e">
+        <f>VLOOKUP(A5,$H$2:$I$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>3000</v>
+      </c>
+      <c r="C6">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <f>B6*C6</f>
+        <v>18000</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>3000</v>
+      </c>
+      <c r="G6" t="e">
+        <f>VLOOKUP(A6,$H$2:$I$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>1500</v>
+      </c>
+      <c r="C7">
+        <v>12</v>
+      </c>
+      <c r="D7">
+        <f>B7*C7</f>
+        <v>18000</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>1500</v>
+      </c>
+      <c r="G7" t="e">
+        <f>VLOOKUP(A7,$H$2:$I$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>12000</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <f>B8*C8</f>
+        <v>36000</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>12000</v>
+      </c>
+      <c r="G8" t="e">
+        <f>VLOOKUP(A8,$H$2:$I$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>500</v>
+      </c>
+      <c r="C9">
+        <v>25</v>
+      </c>
+      <c r="D9">
+        <f>B9*C9</f>
+        <v>12500</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="G9" t="e">
+        <f>VLOOKUP(A9,$H$2:$I$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>7000</v>
+      </c>
+      <c r="D10">
+        <f>B10*C10</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G10" t="e">
+        <f>VLOOKUP(A10,$H$2:$I$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>2000</v>
+      </c>
+      <c r="C11">
+        <v>15</v>
+      </c>
+      <c r="D11">
+        <f>B11*C11</f>
+        <v>30000</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="G11" t="e">
+        <f>VLOOKUP(A11,$H$2:$I$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12">
+        <v>1800</v>
+      </c>
+      <c r="C12">
+        <v>7</v>
+      </c>
+      <c r="D12">
+        <f>B12*C12</f>
+        <v>12600</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>1800</v>
+      </c>
+      <c r="G12" t="e">
+        <f>VLOOKUP(A12,$H$2:$I$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13">
+        <v>2500</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" t="e">
+        <f>B13*C13</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="F13" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G13" t="e">
+        <f>VLOOKUP(A13,$H$2:$I$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14">
+        <v>3500</v>
+      </c>
+      <c r="C14">
+        <v>9</v>
+      </c>
+      <c r="D14">
+        <f>B14*C14</f>
+        <v>31500</v>
+      </c>
+      <c r="E14" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>3500</v>
+      </c>
+      <c r="G14" t="e">
+        <f>VLOOKUP(A14,$H$2:$I$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15">
+        <v>4500</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <f>B15*C15</f>
+        <v>18000</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>4500</v>
+      </c>
+      <c r="G15" t="e">
+        <f>VLOOKUP(A15,$H$2:$I$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16">
+        <v>3800</v>
+      </c>
+      <c r="C16">
+        <v>6</v>
+      </c>
+      <c r="D16">
+        <f>B16*C16</f>
+        <v>22800</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>3800</v>
+      </c>
+      <c r="G16" t="e">
+        <f>VLOOKUP(A16,$H$2:$I$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17">
+        <v>10000</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <f>B17*C17</f>
+        <v>20000</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>10000</v>
+      </c>
+      <c r="G17" t="e">
+        <f>VLOOKUP(A17,$H$2:$I$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18">
+        <v>4200</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <f>B18*C18</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G18" t="e">
+        <f>VLOOKUP(A18,$H$2:$I$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19">
+        <v>6000</v>
+      </c>
+      <c r="C19">
+        <v>11</v>
+      </c>
+      <c r="D19">
+        <f>B19*C19</f>
+        <v>66000</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>6000</v>
+      </c>
+      <c r="G19" t="e">
+        <f>VLOOKUP(A19,$H$2:$I$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20">
+        <v>7500</v>
+      </c>
+      <c r="C20">
+        <v>5</v>
+      </c>
+      <c r="D20">
+        <f>B20*C20</f>
+        <v>37500</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>7500</v>
+      </c>
+      <c r="G20" t="e">
+        <f>VLOOKUP(A20,$H$2:$I$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21">
+        <v>20</v>
+      </c>
+      <c r="D21">
+        <f>B21*C21</f>
+        <v>0</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G21" t="e">
+        <f>VLOOKUP(A21,$H$2:$I$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/stage_1/Basic_Error_Handling_Named Ranges/Basic_error_handling_named_ranges.xlsx
+++ b/stage_1/Basic_Error_Handling_Named Ranges/Basic_error_handling_named_ranges.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_1\Basic_Error_Handling_Named Ranges\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3724851D-FE93-4206-9949-9554D6ED896B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60020128-9753-42EA-BAAE-316DB497B95E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="29">
   <si>
     <t>Product</t>
   </si>
@@ -453,8 +453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -543,22 +543,22 @@
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
-        <v>8</v>
+      <c r="B4">
+        <v>10000</v>
       </c>
       <c r="C4">
         <v>5</v>
       </c>
-      <c r="D4" t="e">
+      <c r="D4">
         <f>B4*C4</f>
-        <v>#VALUE!</v>
+        <v>50000</v>
       </c>
       <c r="E4" s="1">
         <v>0.15</v>
       </c>
-      <c r="F4" t="e">
+      <c r="F4">
         <f>D4/C4</f>
-        <v>#VALUE!</v>
+        <v>10000</v>
       </c>
       <c r="G4" t="e">
         <f>VLOOKUP(A4,$H$2:$I$6,2,FALSE)</f>
@@ -777,19 +777,19 @@
       <c r="B13">
         <v>2500</v>
       </c>
-      <c r="C13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" t="e">
+      <c r="C13">
+        <v>12</v>
+      </c>
+      <c r="D13">
         <f>B13*C13</f>
-        <v>#VALUE!</v>
+        <v>30000</v>
       </c>
       <c r="E13" s="1">
         <v>0.05</v>
       </c>
-      <c r="F13" t="e">
+      <c r="F13">
         <f>D13/C13</f>
-        <v>#VALUE!</v>
+        <v>2500</v>
       </c>
       <c r="G13" t="e">
         <f>VLOOKUP(A13,$H$2:$I$6,2,FALSE)</f>
@@ -1011,8 +1011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD18B855-4A1A-4688-8943-6A25BAFF4725}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/stage_1/Basic_Error_Handling_Named Ranges/Basic_error_handling_named_ranges.xlsx
+++ b/stage_1/Basic_Error_Handling_Named Ranges/Basic_error_handling_named_ranges.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_1\Basic_Error_Handling_Named Ranges\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60020128-9753-42EA-BAAE-316DB497B95E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15117B23-6F91-4019-9782-B18A453819FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -453,8 +453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -543,22 +543,22 @@
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4">
-        <v>10000</v>
+      <c r="B4" t="s">
+        <v>8</v>
       </c>
       <c r="C4">
         <v>5</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="e">
         <f>B4*C4</f>
-        <v>50000</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E4" s="1">
         <v>0.15</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="e">
         <f>D4/C4</f>
-        <v>10000</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G4" t="e">
         <f>VLOOKUP(A4,$H$2:$I$6,2,FALSE)</f>
@@ -777,19 +777,19 @@
       <c r="B13">
         <v>2500</v>
       </c>
-      <c r="C13">
-        <v>12</v>
-      </c>
-      <c r="D13">
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" t="e">
         <f>B13*C13</f>
-        <v>30000</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E13" s="1">
         <v>0.05</v>
       </c>
-      <c r="F13">
+      <c r="F13" t="e">
         <f>D13/C13</f>
-        <v>2500</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G13" t="e">
         <f>VLOOKUP(A13,$H$2:$I$6,2,FALSE)</f>
@@ -1011,8 +1011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD18B855-4A1A-4688-8943-6A25BAFF4725}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1099,22 +1099,22 @@
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
-        <v>8</v>
+      <c r="B4">
+        <v>10000</v>
       </c>
       <c r="C4">
         <v>5</v>
       </c>
-      <c r="D4" t="e">
+      <c r="D4">
         <f>B4*C4</f>
-        <v>#VALUE!</v>
+        <v>50000</v>
       </c>
       <c r="E4" s="1">
         <v>0.15</v>
       </c>
-      <c r="F4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>10000</v>
       </c>
       <c r="G4" t="e">
         <f>VLOOKUP(A4,$H$2:$I$6,2,FALSE)</f>
@@ -1333,19 +1333,19 @@
       <c r="B13">
         <v>2500</v>
       </c>
-      <c r="C13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" t="e">
+      <c r="C13">
+        <v>12</v>
+      </c>
+      <c r="D13">
         <f>B13*C13</f>
-        <v>#VALUE!</v>
+        <v>30000</v>
       </c>
       <c r="E13" s="1">
         <v>0.05</v>
       </c>
-      <c r="F13" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>2500</v>
       </c>
       <c r="G13" t="e">
         <f>VLOOKUP(A13,$H$2:$I$6,2,FALSE)</f>

--- a/stage_1/Basic_Error_Handling_Named Ranges/Basic_error_handling_named_ranges.xlsx
+++ b/stage_1/Basic_Error_Handling_Named Ranges/Basic_error_handling_named_ranges.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_1\Basic_Error_Handling_Named Ranges\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15117B23-6F91-4019-9782-B18A453819FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{943F858D-2997-4B2A-A512-D81EEF26E1FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="32">
   <si>
     <t>Product</t>
   </si>
@@ -122,6 +122,15 @@
   </si>
   <si>
     <t>Category Lookup</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Clothing</t>
+  </si>
+  <si>
+    <t>Accessories</t>
   </si>
 </sst>
 </file>
@@ -451,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="H1" sqref="H1:I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -464,7 +473,7 @@
     <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -486,8 +495,14 @@
       <c r="G1" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -508,12 +523,18 @@
         <f>D2/C2</f>
         <v>5000</v>
       </c>
-      <c r="G2" t="e">
+      <c r="G2" t="str">
         <f>VLOOKUP(A2,$H$2:$I$6,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+        <v>Clothing</v>
+      </c>
+      <c r="H2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -538,8 +559,14 @@
         <f>VLOOKUP(A3,$H$2:$I$6,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -564,8 +591,14 @@
         <f>VLOOKUP(A4,$H$2:$I$6,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -586,12 +619,18 @@
         <f>D5/C5</f>
         <v>4000</v>
       </c>
-      <c r="G5" t="e">
+      <c r="G5" t="str">
         <f>VLOOKUP(A5,$H$2:$I$6,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+        <v>Accessories</v>
+      </c>
+      <c r="H5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -612,12 +651,18 @@
         <f>D6/C6</f>
         <v>3000</v>
       </c>
-      <c r="G6" t="e">
+      <c r="G6" t="str">
         <f>VLOOKUP(A6,$H$2:$I$6,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+        <v>Accessories</v>
+      </c>
+      <c r="H6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -643,7 +688,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -664,12 +709,12 @@
         <f>D8/C8</f>
         <v>12000</v>
       </c>
-      <c r="G8" t="e">
+      <c r="G8" t="str">
         <f>VLOOKUP(A8,$H$2:$I$6,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+        <v>Clothing</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -690,12 +735,12 @@
         <f>D9/C9</f>
         <v>500</v>
       </c>
-      <c r="G9" t="e">
+      <c r="G9" t="str">
         <f>VLOOKUP(A9,$H$2:$I$6,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+        <v>Clothing</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -718,7 +763,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -744,7 +789,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -770,7 +815,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -796,7 +841,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -822,7 +867,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -848,7 +893,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -1009,10 +1054,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD18B855-4A1A-4688-8943-6A25BAFF4725}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1020,7 +1065,7 @@
     <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1042,8 +1087,14 @@
       <c r="G1" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1064,12 +1115,18 @@
         <f>IF(C2 = 0, "", D2/C2)</f>
         <v>5000</v>
       </c>
-      <c r="G2" t="e">
+      <c r="G2" t="str">
         <f>VLOOKUP(A2,$H$2:$I$6,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+        <v>Clothing</v>
+      </c>
+      <c r="H2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1094,8 +1151,14 @@
         <f>VLOOKUP(A3,$H$2:$I$6,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1120,8 +1183,14 @@
         <f>VLOOKUP(A4,$H$2:$I$6,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1142,12 +1211,18 @@
         <f t="shared" si="0"/>
         <v>4000</v>
       </c>
-      <c r="G5" t="e">
+      <c r="G5" t="str">
         <f>VLOOKUP(A5,$H$2:$I$6,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+        <v>Accessories</v>
+      </c>
+      <c r="H5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1168,12 +1243,18 @@
         <f t="shared" si="0"/>
         <v>3000</v>
       </c>
-      <c r="G6" t="e">
+      <c r="G6" t="str">
         <f>VLOOKUP(A6,$H$2:$I$6,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+        <v>Accessories</v>
+      </c>
+      <c r="H6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -1199,7 +1280,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -1220,12 +1301,12 @@
         <f t="shared" si="0"/>
         <v>12000</v>
       </c>
-      <c r="G8" t="e">
+      <c r="G8" t="str">
         <f>VLOOKUP(A8,$H$2:$I$6,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+        <v>Clothing</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -1246,12 +1327,12 @@
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
-      <c r="G9" t="e">
+      <c r="G9" t="str">
         <f>VLOOKUP(A9,$H$2:$I$6,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+        <v>Clothing</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -1274,7 +1355,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1300,7 +1381,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -1326,7 +1407,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -1352,7 +1433,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -1378,7 +1459,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -1404,7 +1485,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>21</v>
       </c>

--- a/stage_1/Basic_Error_Handling_Named Ranges/Basic_error_handling_named_ranges.xlsx
+++ b/stage_1/Basic_Error_Handling_Named Ranges/Basic_error_handling_named_ranges.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_1\Basic_Error_Handling_Named Ranges\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{943F858D-2997-4B2A-A512-D81EEF26E1FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97390207-EE22-4E5E-A56D-750AE2255F77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1057,7 +1057,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1116,7 +1116,7 @@
         <v>5000</v>
       </c>
       <c r="G2" t="str">
-        <f>VLOOKUP(A2,$H$2:$I$6,2,FALSE)</f>
+        <f>IFERROR(VLOOKUP(A2,$H$2:$I$6,2,FALSE), "Not Found")</f>
         <v>Clothing</v>
       </c>
       <c r="H2" t="s">
@@ -1147,9 +1147,9 @@
         <f t="shared" ref="F3:F21" si="0">IF(C3 = 0, "", D3/C3)</f>
         <v/>
       </c>
-      <c r="G3" t="e">
-        <f>VLOOKUP(A3,$H$2:$I$6,2,FALSE)</f>
-        <v>#N/A</v>
+      <c r="G3" t="str">
+        <f t="shared" ref="G3:G21" si="1">IFERROR(VLOOKUP(A3,$H$2:$I$6,2,FALSE), "Not Found")</f>
+        <v>Not Found</v>
       </c>
       <c r="H3" t="s">
         <v>9</v>
@@ -1179,9 +1179,9 @@
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
-      <c r="G4" t="e">
-        <f>VLOOKUP(A4,$H$2:$I$6,2,FALSE)</f>
-        <v>#N/A</v>
+      <c r="G4" t="str">
+        <f t="shared" si="1"/>
+        <v>Not Found</v>
       </c>
       <c r="H4" t="s">
         <v>10</v>
@@ -1212,7 +1212,7 @@
         <v>4000</v>
       </c>
       <c r="G5" t="str">
-        <f>VLOOKUP(A5,$H$2:$I$6,2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>Accessories</v>
       </c>
       <c r="H5" t="s">
@@ -1244,7 +1244,7 @@
         <v>3000</v>
       </c>
       <c r="G6" t="str">
-        <f>VLOOKUP(A6,$H$2:$I$6,2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>Accessories</v>
       </c>
       <c r="H6" t="s">
@@ -1275,9 +1275,9 @@
         <f t="shared" si="0"/>
         <v>1500</v>
       </c>
-      <c r="G7" t="e">
-        <f>VLOOKUP(A7,$H$2:$I$6,2,FALSE)</f>
-        <v>#N/A</v>
+      <c r="G7" t="str">
+        <f t="shared" si="1"/>
+        <v>Not Found</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
@@ -1302,7 +1302,7 @@
         <v>12000</v>
       </c>
       <c r="G8" t="str">
-        <f>VLOOKUP(A8,$H$2:$I$6,2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>Clothing</v>
       </c>
     </row>
@@ -1328,7 +1328,7 @@
         <v>500</v>
       </c>
       <c r="G9" t="str">
-        <f>VLOOKUP(A9,$H$2:$I$6,2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>Clothing</v>
       </c>
     </row>
@@ -1350,9 +1350,9 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G10" t="e">
-        <f>VLOOKUP(A10,$H$2:$I$6,2,FALSE)</f>
-        <v>#N/A</v>
+      <c r="G10" t="str">
+        <f t="shared" si="1"/>
+        <v>Not Found</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
@@ -1376,9 +1376,9 @@
         <f t="shared" si="0"/>
         <v>2000</v>
       </c>
-      <c r="G11" t="e">
-        <f>VLOOKUP(A11,$H$2:$I$6,2,FALSE)</f>
-        <v>#N/A</v>
+      <c r="G11" t="str">
+        <f t="shared" si="1"/>
+        <v>Not Found</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
@@ -1402,9 +1402,9 @@
         <f t="shared" si="0"/>
         <v>1800</v>
       </c>
-      <c r="G12" t="e">
-        <f>VLOOKUP(A12,$H$2:$I$6,2,FALSE)</f>
-        <v>#N/A</v>
+      <c r="G12" t="str">
+        <f t="shared" si="1"/>
+        <v>Not Found</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
@@ -1428,9 +1428,9 @@
         <f t="shared" si="0"/>
         <v>2500</v>
       </c>
-      <c r="G13" t="e">
-        <f>VLOOKUP(A13,$H$2:$I$6,2,FALSE)</f>
-        <v>#N/A</v>
+      <c r="G13" t="str">
+        <f t="shared" si="1"/>
+        <v>Not Found</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
@@ -1454,9 +1454,9 @@
         <f t="shared" si="0"/>
         <v>3500</v>
       </c>
-      <c r="G14" t="e">
-        <f>VLOOKUP(A14,$H$2:$I$6,2,FALSE)</f>
-        <v>#N/A</v>
+      <c r="G14" t="str">
+        <f t="shared" si="1"/>
+        <v>Not Found</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
@@ -1480,9 +1480,9 @@
         <f t="shared" si="0"/>
         <v>4500</v>
       </c>
-      <c r="G15" t="e">
-        <f>VLOOKUP(A15,$H$2:$I$6,2,FALSE)</f>
-        <v>#N/A</v>
+      <c r="G15" t="str">
+        <f t="shared" si="1"/>
+        <v>Not Found</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
@@ -1506,9 +1506,9 @@
         <f t="shared" si="0"/>
         <v>3800</v>
       </c>
-      <c r="G16" t="e">
-        <f>VLOOKUP(A16,$H$2:$I$6,2,FALSE)</f>
-        <v>#N/A</v>
+      <c r="G16" t="str">
+        <f t="shared" si="1"/>
+        <v>Not Found</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
@@ -1532,9 +1532,9 @@
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
-      <c r="G17" t="e">
-        <f>VLOOKUP(A17,$H$2:$I$6,2,FALSE)</f>
-        <v>#N/A</v>
+      <c r="G17" t="str">
+        <f t="shared" si="1"/>
+        <v>Not Found</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
@@ -1558,9 +1558,9 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G18" t="e">
-        <f>VLOOKUP(A18,$H$2:$I$6,2,FALSE)</f>
-        <v>#N/A</v>
+      <c r="G18" t="str">
+        <f t="shared" si="1"/>
+        <v>Not Found</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
@@ -1584,9 +1584,9 @@
         <f t="shared" si="0"/>
         <v>6000</v>
       </c>
-      <c r="G19" t="e">
-        <f>VLOOKUP(A19,$H$2:$I$6,2,FALSE)</f>
-        <v>#N/A</v>
+      <c r="G19" t="str">
+        <f t="shared" si="1"/>
+        <v>Not Found</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
@@ -1610,9 +1610,9 @@
         <f t="shared" si="0"/>
         <v>7500</v>
       </c>
-      <c r="G20" t="e">
-        <f>VLOOKUP(A20,$H$2:$I$6,2,FALSE)</f>
-        <v>#N/A</v>
+      <c r="G20" t="str">
+        <f t="shared" si="1"/>
+        <v>Not Found</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
@@ -1633,9 +1633,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G21" t="e">
-        <f>VLOOKUP(A21,$H$2:$I$6,2,FALSE)</f>
-        <v>#N/A</v>
+      <c r="G21" t="str">
+        <f t="shared" si="1"/>
+        <v>Not Found</v>
       </c>
     </row>
   </sheetData>

--- a/stage_1/Basic_Error_Handling_Named Ranges/Basic_error_handling_named_ranges.xlsx
+++ b/stage_1/Basic_Error_Handling_Named Ranges/Basic_error_handling_named_ranges.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_1\Basic_Error_Handling_Named Ranges\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97390207-EE22-4E5E-A56D-750AE2255F77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03A615D0-DE87-429C-B942-AD4F51BBE879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,9 @@
     <sheet name="Data" sheetId="1" r:id="rId1"/>
     <sheet name="Fix" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="Revenue">Fix!$D$2:$D$21</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="33">
   <si>
     <t>Product</t>
   </si>
@@ -131,6 +134,9 @@
   </si>
   <si>
     <t>Accessories</t>
+  </si>
+  <si>
+    <t>Total Revenue</t>
   </si>
 </sst>
 </file>
@@ -1054,18 +1060,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD18B855-4A1A-4688-8943-6A25BAFF4725}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1093,8 +1100,11 @@
       <c r="I1" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="L1" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1125,8 +1135,12 @@
       <c r="I2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="L2">
+        <f xml:space="preserve"> SUM(Revenue)</f>
+        <v>484900</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1158,7 +1172,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1190,7 +1204,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1222,7 +1236,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1254,7 +1268,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -1280,7 +1294,7 @@
         <v>Not Found</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -1306,7 +1320,7 @@
         <v>Clothing</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -1332,7 +1346,7 @@
         <v>Clothing</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -1355,7 +1369,7 @@
         <v>Not Found</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1381,7 +1395,7 @@
         <v>Not Found</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -1407,7 +1421,7 @@
         <v>Not Found</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -1433,7 +1447,7 @@
         <v>Not Found</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -1459,7 +1473,7 @@
         <v>Not Found</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -1485,7 +1499,7 @@
         <v>Not Found</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>21</v>
       </c>

--- a/stage_1/Basic_Error_Handling_Named Ranges/Basic_error_handling_named_ranges.xlsx
+++ b/stage_1/Basic_Error_Handling_Named Ranges/Basic_error_handling_named_ranges.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_1\Basic_Error_Handling_Named Ranges\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03A615D0-DE87-429C-B942-AD4F51BBE879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8BFF5B7-0206-4122-84B1-880B7F3C5D2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,6 +17,7 @@
     <sheet name="Fix" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="Quantity">Fix!$C$2:$C$21</definedName>
     <definedName name="Revenue">Fix!$D$2:$D$21</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -1063,7 +1064,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
